--- a/output/task2-nerG/eval-performances-comp.xlsx
+++ b/output/task2-nerG/eval-performances-comp.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Downloads/DeepKNLP-master/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C834DD-079B-CA44-BE7F-56B556CA4AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D20F6-8D41-424B-BB5E-E453EC5FFB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>AI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +168,36 @@
   </si>
   <si>
     <t>[Ours] NER+KGC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구어</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능증가량</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류감소량</t>
+  </si>
+  <si>
+    <t>오류감소율</t>
+  </si>
+  <si>
+    <t>기존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,10 +205,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,16 +238,41 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -380,25 +449,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,8 +587,24 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -802,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -815,7 +918,7 @@
     <col min="11" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -846,8 +949,17 @@
       <c r="J1" s="30" t="s">
         <v>7</v>
       </c>
+      <c r="L1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
@@ -878,8 +990,19 @@
       <c r="J2" s="20">
         <v>47.5</v>
       </c>
+      <c r="L2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="41">
+        <f>J14/100</f>
+        <v>0.62113660059787967</v>
+      </c>
+      <c r="N2" s="41">
+        <f>J16/100</f>
+        <v>0.62169399498083056</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -910,8 +1033,16 @@
       <c r="J3" s="21">
         <v>47.8</v>
       </c>
+      <c r="L3" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43">
+        <f>N2-M2</f>
+        <v>5.5739438295088206E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
@@ -942,8 +1073,19 @@
       <c r="J4" s="21">
         <v>59.9</v>
       </c>
+      <c r="L4" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="41">
+        <f>1-M2</f>
+        <v>0.37886339940212033</v>
+      </c>
+      <c r="N4" s="41">
+        <f>1-N2</f>
+        <v>0.37830600501916944</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -974,8 +1116,16 @@
       <c r="J5" s="21">
         <v>60.3</v>
       </c>
+      <c r="L5" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41">
+        <f>M4-N4</f>
+        <v>5.5739438295088206E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:14">
       <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1156,16 @@
       <c r="J6" s="21">
         <v>53.4</v>
       </c>
+      <c r="L6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43">
+        <f>N5/M4</f>
+        <v>1.4712278457895359E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:14">
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1039,7 +1197,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1229,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -1103,7 +1261,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:14">
       <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1135,7 +1293,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:14">
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
@@ -1167,7 +1325,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:14">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1199,7 +1357,7 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:14">
       <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1389,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:14">
       <c r="A14" s="25" t="s">
         <v>30</v>
       </c>
@@ -1263,7 +1421,7 @@
         <v>62.113660059787968</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:14">
       <c r="A15" s="26" t="s">
         <v>31</v>
       </c>
@@ -1295,7 +1453,7 @@
         <v>61.195099574073637</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:14">
       <c r="A16" s="26" t="s">
         <v>32</v>
       </c>
